--- a/scripts/2021_12 P2H_Dec2021_AnfrageTanja/data3.xlsx
+++ b/scripts/2021_12 P2H_Dec2021_AnfrageTanja/data3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lichtblickit-my.sharepoint.com/personal/ruud_wijtvliet_lichtblick_de/Documents/Work_in_RM/python/2020_01_lichtblyck/scripts/2021_12 P2H_Dec2021_AnfrageTanja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_CDD8C093FC5FEBD1A7FC9890E2DD123407B7B265" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C204E91D-688C-4409-BB46-9144A6326B9A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_CDD8C093FC5FEBD1A7FC9890E2DD123407B7B265" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{479D7722-3311-438D-9773-7B7319B42B34}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="-120" windowWidth="27000" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="-120" windowWidth="27045" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,16 +68,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0;\-#,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00%;\-#,##0.00%"/>
-    <numFmt numFmtId="168" formatCode="#,##0%;\-#,##0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000;\-#,##0.0000"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd\ hh:mm;;"/>
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;;"/>
-    <numFmt numFmtId="172" formatCode="mmm\ yyyy;;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00%;\-#,##0.00%"/>
+    <numFmt numFmtId="166" formatCode="#,##0%;\-#,##0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000;\-#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm;;"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;;"/>
+    <numFmt numFmtId="170" formatCode="mmm\ yyyy;;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -139,6 +137,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
@@ -157,12 +161,6 @@
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -174,11 +172,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -529,40 +527,41 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:E1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -669,46 +668,46 @@
       <c r="A5" s="2">
         <v>44531</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>-285.32776041666659</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>-6847.86625</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>285.32776041666659</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>6847.86625</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>51.420115798372393</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>352118.07554676611</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>285.32776041666659</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>6847.86625</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>51.420115798372393</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>352118.07554676611</v>
       </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4">
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -716,46 +715,46 @@
       <c r="A6" s="2">
         <v>44532</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>-300.57967708333348</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>-7213.912250000003</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>300.57967708333348</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>7213.912250000003</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>44.052099609315079</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>317787.98100985843</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>300.57967708333348</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>7213.912250000003</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>44.052099609315079</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>317787.98100985843</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4">
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -763,46 +762,46 @@
       <c r="A7" s="2">
         <v>44533</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>-336.3071875</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>-8071.3725000000004</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>336.3071875</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>8071.3725000000004</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>58.78685385487902</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>474490.59556578961</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>336.3071875</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>8071.3725000000004</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>58.78685385487902</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>474490.59556578961</v>
       </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4">
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -810,48 +809,48 @@
       <c r="A8" s="2">
         <v>44534</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>-332.99312499999979</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>-7991.8349999999964</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>332.99312499999979</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>7991.8349999999964</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>38.877167682654608</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>310699.90938710788</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>332.99312499999991</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>7991.8349999999973</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>38.87716768265463</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>310699.90938710811</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>-3.7895612573872008E-14</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>-9.0949470177292824E-13</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>185.91552631578941</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>-1.690891861615359E-10</v>
       </c>
     </row>
@@ -859,46 +858,46 @@
       <c r="A9" s="2">
         <v>44535</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>-338.57882291666681</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>-8125.8917500000016</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>338.57882291666681</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>8125.8917500000016</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>38.216696812541301</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>310544.74134128069</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>338.57882291666681</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>8125.8917500000016</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>38.216696812541301</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>310544.74134128069</v>
       </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -906,46 +905,46 @@
       <c r="A10" s="2">
         <v>44536</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>-359.5533229166669</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>-8629.2797500000052</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
         <v>359.5533229166669</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>8629.2797500000052</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>81.234629737011801</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>700996.34538834414</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>359.5533229166669</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>8629.2797500000052</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>81.234629737011801</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>700996.34538834414</v>
       </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -953,46 +952,46 @@
       <c r="A11" s="2">
         <v>44537</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>-362.59187499999979</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>-8702.2049999999963</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
         <v>362.59187499999979</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>8702.2049999999963</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>73.158717946085105</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>636642.16110401123</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>362.59187499999979</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>8702.2049999999963</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>73.158717946085105</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>636642.16110401123</v>
       </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4">
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1000,46 +999,46 @@
       <c r="A12" s="2">
         <v>44538</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>-368.15610416666681</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>-8835.7465000000029</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
         <v>368.15610416666681</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>8835.7465000000029</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>70.207762124076353</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>620337.98846064042</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>368.15610416666681</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>8835.7465000000029</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>70.207762124076353</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>620337.98846064042</v>
       </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1047,46 +1046,46 @@
       <c r="A13" s="2">
         <v>44539</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>-363.18531250000001</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>-8716.4474999999984</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
         <v>363.18531250000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>8716.4474999999984</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>87.999941509625216</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>767046.87017171877</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>363.18531250000001</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>8716.4474999999984</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>87.999941509625216</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>767046.87017171877</v>
       </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1094,46 +1093,46 @@
       <c r="A14" s="2">
         <v>44540</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>-367.01288541666668</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>-8808.3092500000002</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
         <v>367.01288541666668</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>8808.3092500000002</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>83.728870272233252</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>737509.78251096222</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>367.01288541666668</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>8808.3092500000002</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>83.728870272233252</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>737509.78251096222</v>
       </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1141,46 +1140,46 @@
       <c r="A15" s="2">
         <v>44541</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>-370.50740624999997</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>-8892.1777500000007</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
         <v>370.50740624999997</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>8892.1777500000007</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>63.585730378164939</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>565415.61688621738</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>370.50740624999997</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>8892.1777500000007</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>63.585730378164939</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>565415.61688621738</v>
       </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1188,46 +1187,46 @@
       <c r="A16" s="2">
         <v>44542</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>-339.2581562499999</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>-8142.195749999998</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
         <v>339.2581562499999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>8142.195749999998</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>45.418964243923533</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>369810.09763627598</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>339.2581562499999</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>8142.195749999998</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>45.418964243923533</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>369810.09763627598</v>
       </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4">
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1235,46 +1234,46 @@
       <c r="A17" s="2">
         <v>44543</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>-292.40294791666668</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>-7017.6707500000002</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
         <v>292.40294791666668</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>7017.6707500000002</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>44.552680319005162</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>312656.04150878318</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>292.40294791666668</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>7017.6707500000002</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>44.552680319005162</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>312656.04150878318</v>
       </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1282,48 +1281,48 @@
       <c r="A18" s="2">
         <v>44544</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>-280.41592708333332</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>-6729.98225</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
         <v>280.41592708333332</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>6729.98225</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>35.887967504466971</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>241525.38429363951</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>280.41592708333337</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>6729.9822500000009</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>35.887967504466999</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>241525.38429363971</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>-3.7895612573872008E-14</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>-9.0949470177292824E-13</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>210.70875000000001</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>-1.916384917421965E-10</v>
       </c>
     </row>
@@ -1331,48 +1330,48 @@
       <c r="A19" s="2">
         <v>44545</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>-265.39139583333338</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>-6369.393500000001</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
         <v>265.39139583333338</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>6369.393500000001</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>26.407810204935011</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>168201.73466854679</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>296.03470833333341</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>7104.8330000000014</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>52.535125331383092</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>373253.29211354657</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>-30.643312499999979</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>-735.4394999999995</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>278.81499082521401</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>-205051.55744499981</v>
       </c>
     </row>
@@ -1380,48 +1379,48 @@
       <c r="A20" s="2">
         <v>44546</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>-268.58687500000002</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>-6446.085</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
         <v>268.58687500000002</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>6446.085</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>22.47244788439815</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>144859.3092209007</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>294.09579166666668</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>7058.299</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>52.248230934025408</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>368783.63615340058</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>-25.508916666666661</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>-612.21399999999994</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>365.76152608809991</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <v>-223924.3269325</v>
       </c>
     </row>
@@ -1429,48 +1428,48 @@
       <c r="A21" s="2">
         <v>44547</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>-276.64363541666671</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>-6639.4472500000011</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
         <v>276.64363541666671</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>6639.4472500000011</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>32.561256980171457</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>216188.74811354271</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>295.36345833333331</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>7088.7229999999981</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>51.301507822952182</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>363662.17843924102</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>-18.719822916666541</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>-449.27574999999712</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>328.24702941500669</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>-147473.43032569819</v>
       </c>
     </row>
@@ -1478,48 +1477,48 @@
       <c r="A22" s="2">
         <v>44548</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>-293.29910416666661</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>-7039.1784999999991</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
         <v>293.29910416666661</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>7039.1784999999991</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>24.441716586541929</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>172049.6058990793</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>324.8885833333332</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>7797.3259999999973</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>47.706705547801143</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>371984.73554221389</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>-31.589479166666589</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>-758.14749999999822</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <v>263.71534515794758</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>-199935.1296431346</v>
       </c>
     </row>
@@ -1527,48 +1526,48 @@
       <c r="A23" s="2">
         <v>44549</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>-310.86504166666651</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>-7460.7609999999968</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
         <v>310.86504166666651</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>7460.7609999999968</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>37.081600271509629</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>276656.95712326828</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>322.81370833333369</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>7747.5290000000086</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>45.568220680308002</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>353041.11119908642</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>-11.94866666666716</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>-286.76800000001191</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>266.36219548839091</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>-76384.154075818034</v>
       </c>
     </row>
@@ -1576,48 +1575,48 @@
       <c r="A24" s="2">
         <v>44550</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>-332.31998958333332</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>-7975.6797500000002</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
         <v>332.31998958333332</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>7975.6797500000002</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>64.899590262164097</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>517618.34783723939</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>301.71054166666659</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>7241.052999999999</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>49.653715982240897</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>359545.18907435337</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>30.609447916666721</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>734.62675000000127</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>215.17479286302299</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>158073.15876288601</v>
       </c>
     </row>
@@ -1625,48 +1624,48 @@
       <c r="A25" s="2">
         <v>44551</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>-351.76844791666667</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>-8442.4427500000002</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
         <v>351.76844791666667</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>8442.4427500000002</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>70.913898976896135</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>598686.53229172924</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>303.84808333333342</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>7292.3540000000012</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>44.150096075997602</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>321958.12972018542</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>47.920364583333289</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>1150.088749999999</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <v>240.6148243529415</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <v>276728.40257154382</v>
       </c>
     </row>
@@ -1674,48 +1673,48 @@
       <c r="A26" s="2">
         <v>44552</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>-360.50195833333322</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>-8652.0469999999968</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
         <v>360.50195833333322</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>8652.0469999999968</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>87.731785818895133</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>759059.5342990139</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>284.38654166666669</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>6825.2770000000019</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>44.201021754031409</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>301684.21715429029</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>76.115416666666462</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>1826.769999999995</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <v>250.37378386152869</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="3">
         <v>457375.31714472361</v>
       </c>
     </row>
@@ -1723,48 +1722,48 @@
       <c r="A27" s="2">
         <v>44553</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>-361.07298958333348</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>-8665.7517500000031</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
         <v>361.07298958333348</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>8665.7517500000031</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>97.382676816909196</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>843894.10204581555</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>271.51395833333368</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>6516.3350000000091</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>46.389468698163491</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>302289.31850924762</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>89.559031249999748</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>2149.416749999994</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="3">
         <v>251.97755788242071</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="3">
         <v>541604.78353656793</v>
       </c>
     </row>
@@ -1772,48 +1771,48 @@
       <c r="A28" s="2">
         <v>44554</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>-351.01514583333329</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>-8424.3634999999995</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
         <v>351.01514583333329</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>8424.3634999999995</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>84.626761469124659</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>712926.6004437001</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>270.69291666666669</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>6496.6300000000019</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <v>36.341729917497673</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>236098.7728339129</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>80.32222916666656</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>1927.733499999998</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="3">
         <v>247.35152841914501</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="3">
         <v>476827.82760978717</v>
       </c>
     </row>
@@ -1821,48 +1820,48 @@
       <c r="A29" s="2">
         <v>44555</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>-332.65466666666669</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>-7983.7120000000014</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
         <v>332.65466666666669</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>7983.7120000000014</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>41.140335915410162</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>328452.59353189118</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>307.08562499999982</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>7370.0549999999948</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <v>36.458536133294309</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>268701.41652186622</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>25.569041666666941</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>613.65700000000652</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <v>97.36901397690292</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="3">
         <v>59751.177010024949</v>
       </c>
     </row>
@@ -1870,48 +1869,48 @@
       <c r="A30" s="2">
         <v>44556</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>-357.31373958333307</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>-8575.5297499999942</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
         <v>357.31373958333307</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>8575.5297499999942</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>45.921994969945843</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>393805.43404412072</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>311.10204166666648</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>7466.448999999996</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>36.879294690179172</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>275357.37296019337</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>46.211697916666587</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>1109.080749999998</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="3">
         <v>106.79841038078369</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="3">
         <v>118448.0610839272</v>
       </c>
     </row>
@@ -1919,48 +1918,48 @@
       <c r="A31" s="2">
         <v>44557</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>-399.15373958333328</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>-9579.6897499999995</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
         <v>399.15373958333328</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>9579.6897499999995</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>97.637719970754944</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>935339.06521721138</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>288.85520833333351</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>6932.5250000000042</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>43.536115680809118</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>301815.21036010142</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>110.2985312499998</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>2647.1647499999949</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <v>239.32165720214849</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="3">
         <v>633523.85485710995</v>
       </c>
     </row>
@@ -1968,48 +1967,48 @@
       <c r="A32" s="2">
         <v>44558</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>-441.39729166666649</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>-10593.535</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
         <v>441.39729166666649</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>10593.535</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>111.53217930066469</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>1181520.0450478659</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>299.01741666666652</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <v>7176.4179999999969</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="3">
         <v>44.629721874507972</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <v>320281.5393952126</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <v>142.379875</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="3">
         <v>3417.1169999999988</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="3">
         <v>252.0365868808864</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="3">
         <v>861238.50565265375</v>
       </c>
     </row>
@@ -2017,48 +2016,48 @@
       <c r="A33" s="2">
         <v>44559</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>-463.4821458333335</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>-11123.5715</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3">
         <v>463.4821458333335</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>11123.5715</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>117.1029554518488</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>1302603.0978299549</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>303.16575000000012</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>7275.978000000001</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="3">
         <v>44.038604659142081</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="3">
         <v>320423.91865061532</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="3">
         <v>160.31639583333339</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="3">
         <v>3847.5935000000031</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <v>255.27103608511121</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="3">
         <v>982179.17917934002</v>
       </c>
     </row>
@@ -2066,48 +2065,48 @@
       <c r="A34" s="2">
         <v>44560</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>-452.34686458333317</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>-10856.32475</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
         <v>452.34686458333317</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>10856.32475</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <v>110.5934021884796</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>1200637.8893654949</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <v>311.9176250000001</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <v>7486.023000000002</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="3">
         <v>45.816577245193059</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="3">
         <v>342983.95103879197</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <v>140.42923958333321</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="3">
         <v>3370.301749999996</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="3">
         <v>254.47393199339029</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="3">
         <v>857653.93832670327</v>
       </c>
     </row>
@@ -2115,48 +2114,48 @@
       <c r="A35" s="2">
         <v>44561</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>-417.27778124999992</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>-10014.66675</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
         <v>417.27778124999992</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>10014.66675</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>89.654212697580647</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>897857.06289988861</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <v>311.24041666666659</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <v>7469.7699999999977</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="3">
         <v>34.670165409498203</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <v>258978.16147090719</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <v>106.0373645833334</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="3">
         <v>2544.8967500000008</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="3">
         <v>251.04315191922069</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="3">
         <v>638878.90142898133</v>
       </c>
     </row>
